--- a/biology/Zoologie/Dhanus_tioman/Dhanus_tioman.xlsx
+++ b/biology/Zoologie/Dhanus_tioman/Dhanus_tioman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dhanus tioman est une espèce de pseudoscorpions de la famille des Ideoroncidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pahang en Malaisie[1]. Elle se rencontre sur l'île Tioman.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pahang en Malaisie. Elle se rencontre sur l'île Tioman.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,13 à 2,76 mm et les femelles de 2,23 à 3,38 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,13 à 2,76 mm et les femelles de 2,23 à 3,38 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'île Tioman.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Harvey, 2016 : The systematics of the pseudoscorpion family Ideoroncidae (Pseudoscorpiones: Neobisioidea) in the Asian region. Journal of Arachnology, vol. 44, no 3, p. 272-329 (texte intégral).</t>
         </is>
